--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,27 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,156 +431,1152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>USER_ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>full_name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nationality</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>elo_rating</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>reputation</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>race_count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>85850696</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Manullang_41</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Narji Manullang</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>44189016</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Andreasen_68</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Åge Andreasen</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>ANDREASEN Racing Team</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1338.901</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>87.134</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>29136003</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Olesen_the_goat</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Osvald Olesen</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Low Fuel Motorsport</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78.57599999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>32739449</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pułka_18</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Grzegorz Pułka</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" s="2" t="n">
+        <v>1336.968</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>96.08499999999999</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>14062225</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Pons_65</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan Pons</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>TEAM PONS</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1640.88</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>98.699</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>37315032</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Arnaiz_6</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Trinidad Arnaiz</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>PetrolHead Simracing</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1535.29</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>79004669</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Bramante_67</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Gabriele Bramante</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>APEX HUNTERS</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1780.18</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>98.861</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>96832835</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Laurits_47</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Laurits Jørgensen</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>TEAM LAURITS</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1555.569</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>67024859</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Báez_83</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Salomón Báez</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1643.046</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>97.512</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>83589031</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Wipstrik_99</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Wipstrik</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1512.077</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>34785054</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Dariusz_94</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Dariusz Łudzik</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1430.19</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>91.236</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>12398385</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ariel_on_twitch</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Ariel Tejera</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1588.654</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>91.57599999999999</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>50557000</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Jakub_16</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Jakub Zontek</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1310.248</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>91.048</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>58604929</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Jones_72</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Joel Jones</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>TEAM UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1529.43</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>93373592</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Vega_53</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Víctor Vega</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1568.541</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>99.63200000000001</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>34683393</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Duncan_27</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Duncan Moore</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1288.916</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>92.098</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>23244924</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Dominik_48</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Dominik Grzegorzak</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>TEAM DOMINIK</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1491.731</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>26516386</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Bryan_98</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Bryan Barbosa</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>PORTUGAL Racing Team</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1511.748</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>99.39700000000001</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>48821581</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Mellor_40</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Iain Mellor</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>PetrolHead Simracing</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1482.973</v>
-      </c>
-      <c r="G3" t="n">
-        <v>84.105</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>63755379</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orellana_9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Andrea Orellana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="F18" s="2" t="n">
+        <v>1720.704</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>92071985</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Bartocha_91</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Jerzy Bartocha</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>PetrolHead Simracing</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1517.722</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>98.777</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>62699671</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Gil_63</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Gil Tavares</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>TAVARES ESPORT</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1231.466</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>75.867</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>91054412</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Csonka_Hu</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>István Csonka</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1460.121</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>85.417</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>79210461</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Joshua_13</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Joshua Friedman</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>FRIEDMAN SIM RACING</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1502.85</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>97.80800000000001</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>19561342</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Edward_97</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Edward Webb</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1461.69</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>99.096</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>46681927</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Albert_yt</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Thomas Albert</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>TEAM REDLINE</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1516.014</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>95.807</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>75174493</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Béla_92</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Béla Sipos</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>PRIVATEER</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1517.027</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81.422</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+      <c r="F25" s="2" t="n">
+        <v>1271.445</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>67.72</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>89808712</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Costanzo_the_ApexHunter</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Costanzo Rossini</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>TEAM ITALY</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1327.427</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>86875181</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Gonzalez_75</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Tobias Gonzalez</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>TEAM TOBIAS</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>1521.159</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>87.479</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>29433871</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Baltasar_30</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Baltasar Sastre</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1641.307</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>90105268</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Reyes_33</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Reyes Cortes</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>CORTES ESPORT</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1561.03</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>98.211</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>74283481</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>David_38</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>David Dupuy</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1486.885</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>93.67400000000001</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>57369491</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Moura_55</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Marcos Moura</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>TEAM MOURA</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1657.47</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>95.351</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>78085897</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Osvald_51</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Osvald Mathiesen</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1514.862</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>93.425</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>26145894</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Jose Antonio_47</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Jose Antonio Simó</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>SPAIN Motorsport</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1545.47</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>89.29600000000001</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,10 +440,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
@@ -493,50 +493,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44189016</v>
+        <v>16626456</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Andreasen_68</t>
+          <t>Brandon_on_twitch</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Åge Andreasen</t>
+          <t>Brandon Mcdonald</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>ANDREASEN Racing Team</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1338.901</v>
+        <v>1555.748</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>87.134</v>
+        <v>98.38800000000001</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29136003</v>
+        <v>21237679</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Olesen_the_goat</t>
+          <t>Christiansen_48</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Osvald Olesen</t>
+          <t>Benjamin Christiansen</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -546,70 +546,70 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>BENJAMIN Racing Team</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1336.968</v>
+        <v>1527.208</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>96.08499999999999</v>
+        <v>99.215</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>14062225</v>
+        <v>28579726</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Pons_65</t>
+          <t>Robert_85</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Jonathan Pons</t>
+          <t>Robert Palmer</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>TEAM PONS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1640.88</v>
+        <v>1770.719</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>98.699</v>
+        <v>98.998</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>37315032</v>
+        <v>10447735</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Arnaiz_6</t>
+          <t>Mason_99</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Trinidad Arnaiz</t>
+          <t>Robert Mason</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -618,95 +618,95 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1535.29</v>
+        <v>1486.612</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>100</v>
+        <v>97.69</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>79004669</v>
+        <v>36850897</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Bramante_67</t>
+          <t>Brian_33</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Gabriele Bramante</t>
+          <t>Brian Ali</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>TEAM BRIAN</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1780.18</v>
+        <v>1589.934</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>98.861</v>
+        <v>98.374</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>96832835</v>
+        <v>11645181</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Laurits_47</t>
+          <t>Amaral_56</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Laurits Jørgensen</t>
+          <t>Joel Amaral</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>TEAM LAURITS</t>
+          <t>AMARAL SIM RACING</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1555.569</v>
+        <v>1629.799</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>100</v>
+        <v>95.735</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>67024859</v>
+        <v>63481552</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Báez_83</t>
+          <t>Ruben_77</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Salomón Báez</t>
+          <t>Ruben Salas</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -716,31 +716,31 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>RUBEN SIM RACING</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1643.046</v>
+        <v>1506.726</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>97.512</v>
+        <v>93.751</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>83589031</v>
+        <v>39275873</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Wipstrik_99</t>
+          <t>Jelle_77</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Alexander Wipstrik</t>
+          <t>Jelle van Veen</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -754,197 +754,197 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1512.077</v>
+        <v>1606.31</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>100</v>
+        <v>97.935</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>34785054</v>
+        <v>44237043</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Dariusz_94</t>
+          <t>Eric_33</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Dariusz Łudzik</t>
+          <t>Eric Robinson</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM ERIC</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1430.19</v>
+        <v>1376.37</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>91.236</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>12398385</v>
+        <v>30998265</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Ariel_on_twitch</t>
+          <t>Tropea_2</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Ariel Tejera</t>
+          <t>Amleto Tropea</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM AMLETO</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1588.654</v>
+        <v>1624.64</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>91.57599999999999</v>
+        <v>98.70399999999999</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>50557000</v>
+        <v>69944490</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Jakub_16</t>
+          <t>Gastone_Slipstreamer</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Jakub Zontek</t>
+          <t>Gastone Giannuzzi</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1310.248</v>
+        <v>1463.617</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>91.048</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>58604929</v>
+        <v>81583152</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Jones_72</t>
+          <t>Usman_64</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Joel Jones</t>
+          <t>Usman Tarihoran</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>TEAM UNITED KINGDOM</t>
+          <t>USMAN RACING</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1529.43</v>
+        <v>1335.151</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>100</v>
+        <v>94.901</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>93373592</v>
+        <v>25988208</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Vega_53</t>
+          <t>Salinas_44</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Víctor Vega</t>
+          <t>Mario Salinas</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1568.541</v>
+        <v>1443.866</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>99.63200000000001</v>
+        <v>91.54600000000001</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>34683393</v>
+        <v>66439237</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Duncan_27</t>
+          <t>Lawrence_32</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Duncan Moore</t>
+          <t>Joe Lawrence</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -954,14 +954,14 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>LAWRENCE SIM RACING</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1288.916</v>
+        <v>1385.059</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>92.098</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>36</v>
@@ -969,67 +969,67 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>23244924</v>
+        <v>63201903</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Dominik_48</t>
+          <t>Frithjof_6</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Dominik Grzegorzak</t>
+          <t>Frithjof Röhricht</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>TEAM DOMINIK</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1491.731</v>
+        <v>1403.168</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>100</v>
+        <v>98.845</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>26516386</v>
+        <v>28099907</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Bryan_98</t>
+          <t>Marcelino_25</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Bryan Barbosa</t>
+          <t>Marcelino Figuerola</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>PORTUGAL Racing Team</t>
+          <t>SPAIN Racing Team</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1511.748</v>
+        <v>1755.526</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>99.39700000000001</v>
+        <v>98.008</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>40</v>
@@ -1037,67 +1037,67 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>48821581</v>
+        <v>82634632</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Mellor_40</t>
+          <t>Valerio_yt</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Iain Mellor</t>
+          <t>Valerio Vespucci</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>VESPUCCI ESPORT</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1720.704</v>
+        <v>1501.515</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>100</v>
+        <v>99.86</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>92071985</v>
+        <v>63104514</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Bartocha_91</t>
+          <t>Maurice_39</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Jerzy Bartocha</t>
+          <t>Maurice François</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1517.722</v>
+        <v>1590.764</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>98.777</v>
+        <v>96.339</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>41</v>
@@ -1105,186 +1105,186 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>62699671</v>
+        <v>67770986</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Gil_63</t>
+          <t>Kovács_Hu</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Gil Tavares</t>
+          <t>György Kovács</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>TAVARES ESPORT</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1231.466</v>
+        <v>1342.442</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>75.867</v>
+        <v>99.697</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>91054412</v>
+        <v>16341927</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Csonka_Hu</t>
+          <t>Ibrani_on_twitch</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>István Csonka</t>
+          <t>Ibrani Pradipta</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>TEAM INDONESIA</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1460.121</v>
+        <v>1456.801</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>85.417</v>
+        <v>97.544</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>79210461</v>
+        <v>43597300</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Joshua_13</t>
+          <t>Pasich_35</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Joshua Friedman</t>
+          <t>Albert Pasich</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>FRIEDMAN SIM RACING</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1502.85</v>
+        <v>1375.848</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>97.80800000000001</v>
+        <v>86.035</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>19561342</v>
+        <v>23315213</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Edward_97</t>
+          <t>Ben_96</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Edward Webb</t>
+          <t>Ben Graham</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1461.69</v>
+        <v>1473.057</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>99.096</v>
+        <v>93.309</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46681927</v>
+        <v>25085812</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Albert_yt</t>
+          <t>Campos_b00st3d</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Thomas Albert</t>
+          <t>Fábio Campos</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>FÁBIO RACING</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1516.014</v>
+        <v>1638.325</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>95.807</v>
+        <v>94.68600000000001</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>75174493</v>
+        <v>71009592</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Béla_92</t>
+          <t>Nagy_PEC</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Béla Sipos</t>
+          <t>Róbert Nagy</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1294,104 +1294,104 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>HUNGARY Racing Team</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1271.445</v>
+        <v>1376.056</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>67.72</v>
+        <v>84.32299999999999</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>89808712</v>
+        <v>70421425</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Costanzo_the_ApexHunter</t>
+          <t>Borges_92</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Costanzo Rossini</t>
+          <t>Rafael Borges</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>TEAM ITALY</t>
+          <t>BRAZIL ESPORT</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1327.427</v>
+        <v>1518.788</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>86875181</v>
+        <v>18919576</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Gonzalez_75</t>
+          <t>Jake_79</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Tobias Gonzalez</t>
+          <t>Jake West</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>TEAM TOBIAS</t>
+          <t>TEAM JAKE</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1521.159</v>
+        <v>1349.542</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>87.479</v>
+        <v>92.998</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>29433871</v>
+        <v>52351743</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Baltasar_30</t>
+          <t>Mauro_HS</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Baltasar Sastre</t>
+          <t>Mauro Henriques</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1400,146 +1400,146 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1641.307</v>
+        <v>1612.182</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>90105268</v>
+        <v>84940360</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Reyes_33</t>
+          <t>Nándor_18</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Reyes Cortes</t>
+          <t>Nándor Kovács</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>CORTES ESPORT</t>
+          <t>KOVÁCS Motorsport</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1561.03</v>
+        <v>1574.65</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>98.211</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>74283481</v>
+        <v>12522773</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>David_38</t>
+          <t>Cassiano_44</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>David Dupuy</t>
+          <t>Benicio Cassiano</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM CASSIANO</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1486.885</v>
+        <v>1291.041</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>93.67400000000001</v>
+        <v>72.646</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>57369491</v>
+        <v>67310058</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Moura_55</t>
+          <t>Cofré_37</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Marcos Moura</t>
+          <t>Gabriel Cofré</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>TEAM MOURA</t>
+          <t>GABRIEL RACING</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1657.47</v>
+        <v>1506.953</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>95.351</v>
+        <v>87.18899999999999</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>78085897</v>
+        <v>31578519</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Osvald_51</t>
+          <t>Kobelt_ChicaneKing</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Osvald Mathiesen</t>
+          <t>Gunter Kobelt</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>TEAM KOBELT</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1514.862</v>
+        <v>1598.103</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>93.425</v>
+        <v>97.46899999999999</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>40</v>
@@ -1547,36 +1547,36 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>26145894</v>
+        <v>74689874</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Jose Antonio_47</t>
+          <t>Girschner_70</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Jose Antonio Simó</t>
+          <t>Alberto Girschner</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>SPAIN Motorsport</t>
+          <t>GERMANY Motorsport</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1545.47</v>
+        <v>1333.477</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>89.29600000000001</v>
+        <v>76.631</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,10 +440,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
@@ -493,33 +493,33 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>36557255</v>
+        <v>55984828</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Cakrawangsa_29</t>
+          <t>Jones_86</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Cakrawangsa Gunarto</t>
+          <t>Zachary Jones</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1516</v>
+        <v>1514.973</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>87.026</v>
+        <v>82.13200000000001</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3</v>
@@ -527,33 +527,33 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>90869874</v>
+        <v>94825134</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Oyarzún_14</t>
+          <t>Tamás_44</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Pablo Oyarzún</t>
+          <t>Tamás Balogh</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>TEAM CHILE</t>
+          <t>BALOGH SIM RACING</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1498.973</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>78.7</v>
+        <v>72.727</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3</v>
@@ -561,33 +561,33 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40037881</v>
+        <v>53075937</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Odrzywołek_Slipstreamer</t>
+          <t>Rasmus_30</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Arkadiusz Odrzywołek</t>
+          <t>Rasmus Sørensen</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>ODRZYWOŁEK Motorsport</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
         <v>1485.027</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>78.008</v>
+        <v>77.755</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3</v>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,10 +440,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>55984828</v>
+        <v>37293310</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Jones_86</t>
+          <t>Johansen_39</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Zachary Jones</t>
+          <t>Laust Johansen</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -516,81 +516,1067 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1514.973</v>
+        <v>1683.616</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>82.13200000000001</v>
+        <v>98.205</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>94825134</v>
+        <v>20645105</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Tamás_44</t>
+          <t>Schmidt_97</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Tamás Balogh</t>
+          <t>Mik Schmidt</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>BALOGH SIM RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1500</v>
+        <v>1490.382</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>72.727</v>
+        <v>87.767</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>53075937</v>
+        <v>98113049</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Rasmus_30</t>
+          <t>Arthur_Slipstreamer</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Rasmus Sørensen</t>
+          <t>Arthur Abreu</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1628.642</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>99.062</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>25323529</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Dankiewicz_85</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Grzegorz Dankiewicz</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>TEAM GRZEGORZ</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1348.063</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>84.872</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>26130718</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Robert_85</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Robert Harper</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1525.982</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>99261837</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>van Luin_32</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Jayson van Luin</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1285.454</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>66.279</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>68765549</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Barnett_12</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Richard Barnett</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>BARNETT RACING</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1661.207</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>99.907</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>40009359</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Carlier_33</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Aimé Carlier</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>TEAM AIMÉ</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1630.193</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>78.887</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>23590799</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Barents_42</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Jim Barents</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1273.594</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>82.456</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>27246772</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Anichini_82</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Giacobbe Anichini</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>GIACOBBE SIM RACING</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1465.895</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>88.95699999999999</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>15594868</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Alexandre_76</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Alexandre Silva</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1505.767</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>89.477</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>60011814</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Fernandes_58</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Jean Fernandes</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>TEAM FERNANDES</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1371.483</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>78.04900000000001</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>78939252</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Michel_97</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Michel Dupont</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>TEAM REDLINE</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1390.177</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>97.18600000000001</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14769371</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Khan_93</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Douglas Khan</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>DOUGLAS SIM RACING</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1510.993</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>90.011</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>96596919</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Sanguineti_36</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Antonino Sanguineti</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1563.483</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>99.61199999999999</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>35489830</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Cox_44</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Donald Cox</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>TEAM COX</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1752.795</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>97.574</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>60836695</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Peláez_85</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Dionisio Peláez</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>SPAIN Racing Team</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1478.624</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>85.845</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>51434329</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Oscar_34</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Oscar Ramírez</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1294.418</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>74.89700000000001</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>49518736</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Schinke_b00st3d</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Ewald Schinke</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>TEAM REDLINE</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1393.662</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>86996538</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Kenneth_on_twitch</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Kenneth Schmidt</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>TEAM CANADA</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1510.42</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>29333834</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Fausto_Slipstreamer</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Fausto Gomez</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>ARGENTINA SIM RACING</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1529.297</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>99.67700000000001</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45155933</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Lucca_3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Lucca da Mota</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>BRAZIL Racing Team</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1522.423</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>95065632</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Adriansyah_15</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Irsad Adriansyah</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1601.874</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>94.768</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>33099369</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Bou_the_goat</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Edgardo Bou</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1513.844</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>78169043</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Bañuelos_44</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Amalia Bañuelos</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1296.846</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>94.247</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>27686239</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Richardt_35</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Richardt Møller</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>1607.378</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>97.75700000000001</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>18796159</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Delorme_yt</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Victor Delorme</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>FRANCE SIM RACING</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1539.854</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>83.10599999999999</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>25757669</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Luciano_15</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Luciano Dominguez</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>TEAM DOMINGUEZ</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1434.371</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>98.502</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>97519586</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Abraham_on_twitch</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Abraham Laureano</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1516.991</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>92.84999999999999</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>20231356</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Darko_72</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Darko Etzold</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1500.276</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>82.611</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>87759825</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Marin_the_ApexHunter</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nacio Marin</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>TEAM REDLINE</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>1485.027</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>77.755</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3</v>
+      <c r="F32" s="2" t="n">
+        <v>1469.043</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>87.45699999999999</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>48266336</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Horváth_twitch</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Szabolcs Horváth</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>APEX HUNTERS</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1702.953</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>96.789</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,8 +440,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>37293310</v>
+        <v>45690279</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Johansen_39</t>
+          <t>Peralta_17</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Laust Johansen</t>
+          <t>Bautista Peralta</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -516,32 +516,32 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1683.616</v>
+        <v>1486.486</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>98.205</v>
+        <v>84.291</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>20645105</v>
+        <v>40910039</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Schmidt_97</t>
+          <t>Brandon_60</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Mik Schmidt</t>
+          <t>Brandon Bird</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -550,231 +550,231 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1490.382</v>
+        <v>1390.57</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>87.767</v>
+        <v>81.93600000000001</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>98113049</v>
+        <v>57029377</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Arthur_Slipstreamer</t>
+          <t>Schiavone_ChicaneKing</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Arthur Abreu</t>
+          <t>Giulio Schiavone</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM SCHIAVONE</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1628.642</v>
+        <v>1634.673</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>99.062</v>
+        <v>90.854</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>25323529</v>
+        <v>65600643</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Dankiewicz_85</t>
+          <t>Rosario_max</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Grzegorz Dankiewicz</t>
+          <t>Rosario Modiano</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>TEAM GRZEGORZ</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1348.063</v>
+        <v>1514.756</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>84.872</v>
+        <v>94.255</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>26130718</v>
+        <v>19356117</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Robert_85</t>
+          <t>Powers_ChicaneKing</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Robert Harper</t>
+          <t>Austin Powers</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1525.982</v>
+        <v>1352.089</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>98.48999999999999</v>
+        <v>69.443</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>99261837</v>
+        <v>25226805</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>van Luin_32</t>
+          <t>Rybus_79</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Jayson van Luin</t>
+          <t>Borys Rybus</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1285.454</v>
+        <v>1477.999</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>66.279</v>
+        <v>85.791</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>68765549</v>
+        <v>22615348</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Barnett_12</t>
+          <t>Gerrit_yt</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Richard Barnett</t>
+          <t>Gerrit François</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>BARNETT RACING</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1661.207</v>
+        <v>1491.724</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>99.907</v>
+        <v>81.333</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40009359</v>
+        <v>90610611</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Carlier_33</t>
+          <t>Winters_9</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Aimé Carlier</t>
+          <t>Dylan Winters</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>TEAM AIMÉ</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1630.193</v>
+        <v>1569.478</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>78.887</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>23590799</v>
+        <v>98214127</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Barents_42</t>
+          <t>Sebastiaan_24</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Jim Barents</t>
+          <t>Sebastiaan Volcke</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -784,308 +784,308 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>TEAM SEBASTIAAN</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1273.594</v>
+        <v>1447.989</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>82.456</v>
+        <v>80.854</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>27246772</v>
+        <v>78750211</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Anichini_82</t>
+          <t>Fonseca_86</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Giacobbe Anichini</t>
+          <t>Thomas Fonseca</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>GIACOBBE SIM RACING</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1465.895</v>
+        <v>1477.537</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>88.95699999999999</v>
+        <v>77.652</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>15594868</v>
+        <v>80908810</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Alexandre_76</t>
+          <t>Satya_44</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Alexandre Silva</t>
+          <t>Satya Firmansyah</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1505.767</v>
+        <v>1456.648</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>89.477</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>60011814</v>
+        <v>31238098</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Fernandes_58</t>
+          <t>Jáuregui_76</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Jean Fernandes</t>
+          <t>Adrián Jáuregui</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>TEAM FERNANDES</t>
+          <t>TEAM SPAIN</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1371.483</v>
+        <v>1405.34</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>78.04900000000001</v>
+        <v>77.857</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>78939252</v>
+        <v>80714395</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Michel_97</t>
+          <t>Zachary_HS</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Michel Dupont</t>
+          <t>Zachary Jones</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>TEAM UNITED STATES</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1390.177</v>
+        <v>1553.8</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>97.18600000000001</v>
+        <v>86.526</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>14769371</v>
+        <v>69359861</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Khan_93</t>
+          <t>Nancy_90</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Douglas Khan</t>
+          <t>Nancy López</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>DOUGLAS SIM RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1510.993</v>
+        <v>1488.308</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>90.011</v>
+        <v>82.51300000000001</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>96596919</v>
+        <v>92574816</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Sanguineti_36</t>
+          <t>Nathan_15</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Antonino Sanguineti</t>
+          <t>Nathan Costela</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1563.483</v>
+        <v>1613.231</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>99.61199999999999</v>
+        <v>99.09399999999999</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35489830</v>
+        <v>88238664</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Cox_44</t>
+          <t>Philip_78</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Donald Cox</t>
+          <t>Philip Hendriks</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>TEAM COX</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1752.795</v>
+        <v>1550.094</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>97.574</v>
+        <v>78.639</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>60836695</v>
+        <v>38999699</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Peláez_85</t>
+          <t>Colas_34</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Dionisio Peláez</t>
+          <t>Théodore Colas</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>SPAIN Racing Team</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1478.624</v>
+        <v>1664.135</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>85.845</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>51434329</v>
+        <v>47081613</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Oscar_34</t>
+          <t>James_80</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Oscar Ramírez</t>
+          <t>James Bradshaw</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1094,372 +1094,372 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1294.418</v>
+        <v>1530.552</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>74.89700000000001</v>
+        <v>95.431</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>49518736</v>
+        <v>32497188</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Schinke_b00st3d</t>
+          <t>Balijan_twitch</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Ewald Schinke</t>
+          <t>Balijan Damanik</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1393.662</v>
+        <v>1430.777</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>100</v>
+        <v>67.392</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>86996538</v>
+        <v>28298387</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Kenneth_on_twitch</t>
+          <t>Evangelos_HS</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Kenneth Schmidt</t>
+          <t>Evangelos Ullmann</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>TEAM CANADA</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1510.42</v>
+        <v>1500.427</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>99.54000000000001</v>
+        <v>77.58</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>29333834</v>
+        <v>20408101</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Fausto_Slipstreamer</t>
+          <t>Warji_1</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Fausto Gomez</t>
+          <t>Warji Tarihoran</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>ARGENTINA SIM RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1529.297</v>
+        <v>1497.582</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>99.67700000000001</v>
+        <v>69.80200000000001</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45155933</v>
+        <v>40445742</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Lucca_3</t>
+          <t>Horváth_5</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Lucca da Mota</t>
+          <t>József Horváth</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>BRAZIL Racing Team</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1522.423</v>
+        <v>1536.234</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>100</v>
+        <v>80.033</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>95065632</v>
+        <v>68640987</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Adriansyah_15</t>
+          <t>Nissen_57</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Irsad Adriansyah</t>
+          <t>Mikkel Nissen</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1601.874</v>
+        <v>1539.99</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>94.768</v>
+        <v>78.179</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>33099369</v>
+        <v>44719059</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Bou_the_goat</t>
+          <t>Auguste_72</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Edgardo Bou</t>
+          <t>Auguste Lefèvre</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1513.844</v>
+        <v>1594.798</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>100</v>
+        <v>81.167</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>78169043</v>
+        <v>20486010</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Bañuelos_44</t>
+          <t>Donatello_9</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Amalia Bañuelos</t>
+          <t>Donatello Bocelli</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1296.846</v>
+        <v>1437.642</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>94.247</v>
+        <v>81.35599999999999</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>27686239</v>
+        <v>38859157</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Richardt_35</t>
+          <t>Cezary_51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Richardt Møller</t>
+          <t>Cezary Kargol</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1607.378</v>
+        <v>1442.321</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>97.75700000000001</v>
+        <v>76.34699999999999</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>18796159</v>
+        <v>18688203</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Delorme_yt</t>
+          <t>Koko_44</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Victor Delorme</t>
+          <t>Koko Januar</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>FRANCE SIM RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1539.854</v>
+        <v>1467.217</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>83.10599999999999</v>
+        <v>90.131</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>25757669</v>
+        <v>83216770</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Luciano_15</t>
+          <t>José Luis_51</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Luciano Dominguez</t>
+          <t>José Luis Rael</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>TEAM DOMINGUEZ</t>
+          <t>RAEL ESPORT</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1434.371</v>
+        <v>1392.445</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>98.502</v>
+        <v>73.33</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>97519586</v>
+        <v>35446351</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Abraham_on_twitch</t>
+          <t>Gimenez_78</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Abraham Laureano</t>
+          <t>Stéphane Gimenez</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1468,115 +1468,115 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1516.991</v>
+        <v>1560.904</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>92.84999999999999</v>
+        <v>82.93899999999999</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>20231356</v>
+        <v>77719686</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Darko_72</t>
+          <t>Vásquez_51</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Darko Etzold</t>
+          <t>José Vásquez</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1500.276</v>
+        <v>1539.106</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>82.611</v>
+        <v>90.884</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>87759825</v>
+        <v>81972006</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Marin_the_ApexHunter</t>
+          <t>Gergely_HS</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nacio Marin</t>
+          <t>Gergely Szilágyi</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1469.043</v>
+        <v>1514.258</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>87.45699999999999</v>
+        <v>83.88200000000001</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>48266336</v>
+        <v>36227483</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Horváth_twitch</t>
+          <t>Mansilla_33</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Szabolcs Horváth</t>
+          <t>Rodrigo Mansilla</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1702.953</v>
+        <v>1440.897</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>96.789</v>
+        <v>64.539</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,8 +440,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -493,135 +493,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45690279</v>
+        <v>50819530</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Peralta_17</t>
+          <t>Toft_80</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Bautista Peralta</t>
+          <t>Curt Toft</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM DENMARK</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1486.486</v>
+        <v>1567.594</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>84.291</v>
+        <v>79.526</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40910039</v>
+        <v>44519399</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Brandon_60</t>
+          <t>Nielsen_72</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Brandon Bird</t>
+          <t>Per Nielsen</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1390.57</v>
+        <v>1509.605</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>81.93600000000001</v>
+        <v>98.693</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>57029377</v>
+        <v>43411979</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Schiavone_ChicaneKing</t>
+          <t>Tibor_yt</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Giulio Schiavone</t>
+          <t>Tibor Horváth</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>TEAM SCHIAVONE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1634.673</v>
+        <v>1491.836</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>90.854</v>
+        <v>88.426</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>65600643</v>
+        <v>39423120</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Rosario_max</t>
+          <t>De La Fuente_15</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Rosario Modiano</t>
+          <t>Sergio De La Fuente</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1514.756</v>
+        <v>1506.267</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>94.255</v>
+        <v>69.72799999999999</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>10</v>
@@ -629,101 +629,101 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>19356117</v>
+        <v>20562826</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Powers_ChicaneKing</t>
+          <t>Troy_20</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Austin Powers</t>
+          <t>Troy Parker</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1352.089</v>
+        <v>1535.587</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>69.443</v>
+        <v>84.602</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>25226805</v>
+        <v>74504365</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Rybus_79</t>
+          <t>Liam_16</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Borys Rybus</t>
+          <t>Liam McCarthy</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1477.999</v>
+        <v>1572.842</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>85.791</v>
+        <v>75.422</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>22615348</v>
+        <v>11737213</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Gerrit_yt</t>
+          <t>Harsanto_69</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Gerrit François</t>
+          <t>Harsanto Januar</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1491.724</v>
+        <v>1426.501</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>81.333</v>
+        <v>78.78400000000001</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>11</v>
@@ -731,33 +731,33 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>90610611</v>
+        <v>67640435</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Winters_9</t>
+          <t>Buk_on_twitch</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Dylan Winters</t>
+          <t>Łukasz Buk</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1569.478</v>
+        <v>1500.002</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>100</v>
+        <v>81.727</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>12</v>
@@ -765,361 +765,361 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>98214127</v>
+        <v>78893591</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Sebastiaan_24</t>
+          <t>Gilbert_80</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Sebastiaan Volcke</t>
+          <t>Joseph Gilbert</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>TEAM SEBASTIAAN</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1447.989</v>
+        <v>1615.323</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>80.854</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>78750211</v>
+        <v>27535161</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Fonseca_86</t>
+          <t>Totino_43</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Thomas Fonseca</t>
+          <t>Enrico Totino</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1477.537</v>
+        <v>1563.108</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>77.652</v>
+        <v>85.17400000000001</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>80908810</v>
+        <v>79415539</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Satya_44</t>
+          <t>Ramírez_83</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Satya Firmansyah</t>
+          <t>Mauricio Ramírez</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1456.648</v>
+        <v>1381.109</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>100</v>
+        <v>83.65600000000001</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>31238098</v>
+        <v>35635784</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Jáuregui_76</t>
+          <t>José Miguel_57</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Adrián Jáuregui</t>
+          <t>José Miguel Câmara</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>TEAM SPAIN</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1405.34</v>
+        <v>1492.724</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>77.857</v>
+        <v>78.584</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>80714395</v>
+        <v>40292260</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Zachary_HS</t>
+          <t>Vargas_44</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Zachary Jones</t>
+          <t>Jordán Vargas</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>TEAM UNITED STATES</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1553.8</v>
+        <v>1407.967</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>86.526</v>
+        <v>82.61</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>69359861</v>
+        <v>58734058</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Nancy_90</t>
+          <t>Melo_63</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nancy López</t>
+          <t>Lisandro Melo</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1488.308</v>
+        <v>1530.987</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>82.51300000000001</v>
+        <v>73.908</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>92574816</v>
+        <v>79982643</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Nathan_15</t>
+          <t>Felipe_91</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nathan Costela</t>
+          <t>Felipe Carreño</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1613.231</v>
+        <v>1430.388</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>99.09399999999999</v>
+        <v>72.544</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>88238664</v>
+        <v>85155740</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Philip_78</t>
+          <t>James_77</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Philip Hendriks</t>
+          <t>James Jakobsen</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1550.094</v>
+        <v>1497.307</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>78.639</v>
+        <v>82.18300000000001</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38999699</v>
+        <v>57182793</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Colas_34</t>
+          <t>Sitompul_65</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Théodore Colas</t>
+          <t>Edison Sitompul</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1664.135</v>
+        <v>1431.963</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>100</v>
+        <v>74.477</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>47081613</v>
+        <v>39736367</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>James_80</t>
+          <t>Thorsen_37</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>James Bradshaw</t>
+          <t>Tage Thorsen</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1530.552</v>
+        <v>1489.611</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>95.431</v>
+        <v>88.599</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>32497188</v>
+        <v>74358012</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Balijan_twitch</t>
+          <t>Débora_Cr1t1c4l</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Balijan Damanik</t>
+          <t>Débora Tejada</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1430.777</v>
+        <v>1577.914</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>67.392</v>
+        <v>98.488</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>28298387</v>
+        <v>12610196</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Evangelos_HS</t>
+          <t>Belda_0</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Evangelos Ullmann</t>
+          <t>Faustino Belda</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1162,27 +1162,27 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1500.427</v>
+        <v>1576.486</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>77.58</v>
+        <v>68.996</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>20408101</v>
+        <v>75498741</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Warji_1</t>
+          <t>Sirait_70</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Warji Tarihoran</t>
+          <t>Dono Sirait</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1196,100 +1196,100 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1497.582</v>
+        <v>1424.274</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>69.80200000000001</v>
+        <v>72.334</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40445742</v>
+        <v>45005731</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Horváth_5</t>
+          <t>Vaca_77</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>József Horváth</t>
+          <t>Hilda Vaca</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1536.234</v>
+        <v>1512.504</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>80.033</v>
+        <v>79.855</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>68640987</v>
+        <v>20936083</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Nissen_57</t>
+          <t>Delgado_8</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Mikkel Nissen</t>
+          <t>Benito Delgado</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1539.99</v>
+        <v>1579.683</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>78.179</v>
+        <v>77.87</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44719059</v>
+        <v>14461622</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Auguste_72</t>
+          <t>Zeljko_42</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Auguste Lefèvre</t>
+          <t>Zeljko Becker</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1594.798</v>
+        <v>1449.263</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>81.167</v>
+        <v>82.184</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>20486010</v>
+        <v>58858039</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Donatello_9</t>
+          <t>Hołubowicz_94</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Donatello Bocelli</t>
+          <t>Borys Hołubowicz</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1437.642</v>
+        <v>1570.37</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>81.35599999999999</v>
+        <v>80.18899999999999</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>38859157</v>
+        <v>97938038</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Cezary_51</t>
+          <t>Aleksander_78</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Cezary Kargol</t>
+          <t>Aleksander Hrabia</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1362,36 +1362,36 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1442.321</v>
+        <v>1355.091</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>76.34699999999999</v>
+        <v>78.711</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>18688203</v>
+        <v>16993073</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Koko_44</t>
+          <t>Julia_83</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Koko Januar</t>
+          <t>Julia Pedraza</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1400,183 +1400,795 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1467.217</v>
+        <v>1393.963</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>90.131</v>
+        <v>75.614</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>83216770</v>
+        <v>54437763</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>José Luis_51</t>
+          <t>Gaspare_37</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>José Luis Rael</t>
+          <t>Gaspare Botta</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>RAEL ESPORT</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1392.445</v>
+        <v>1377.656</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>73.33</v>
+        <v>75.895</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35446351</v>
+        <v>91909842</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Gimenez_78</t>
+          <t>Mark_b00st3d</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Stéphane Gimenez</t>
+          <t>Mark Kelly</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1560.904</v>
+        <v>1530.117</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>82.93899999999999</v>
+        <v>75.32599999999999</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>77719686</v>
+        <v>85260231</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Vásquez_51</t>
+          <t>Vieira_59</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>José Vásquez</t>
+          <t>Afonso Vieira</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PORTUGAL Racing Team</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1539.106</v>
+        <v>1462.123</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>90.884</v>
+        <v>93.154</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>81972006</v>
+        <v>18558645</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Gergely_HS</t>
+          <t>Clavero_Cr1t1c4l</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Gergely Szilágyi</t>
+          <t>Clímaco Clavero</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1514.258</v>
+        <v>1605.416</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>83.88200000000001</v>
+        <v>97.61799999999999</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>36227483</v>
+        <v>67739226</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Mansilla_33</t>
+          <t>Morek_max</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Rodrigo Mansilla</t>
+          <t>Stanisław Morek</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>PetrolHead Simracing</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1424.708</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>68.327</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>24545979</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Sihotang_51</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Lembah Sihotang</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>TEAM SIHOTANG</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1601.149</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>74526414</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Sitorus_68</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Dwi Sitorus</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>1510.974</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>94.114</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>84232832</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Ramiro_44</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Ramiro Muñoz</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>TEAM ARGENTINA</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1502.105</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>92.431</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45120138</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Clausen_54</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Christoffer Clausen</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1438.959</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>92823071</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Mathias_22</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Mathias da Mota</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>APEX HUNTERS</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1477.567</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>85.172</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>89371139</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Lautaro_the_goat</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Lautaro Bustos</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1483.695</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>66.503</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>43641803</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Karja_60</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Karja Samosir</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1489.185</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>77.90600000000001</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>58039499</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Rodríguez_PR0F</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Bastián Rodríguez</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1532.274</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>85.789</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>14895103</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Camilo_7</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Camilo Herrera</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>PetrolHead Simracing</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1555.484</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>82.32599999999999</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>35957367</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Sil_33</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Sil Soos</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>APEX HUNTERS</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>1539.056</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>98.042</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>71540565</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Cesare_15</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Cesare Zaccagnini</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>1583.633</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>88.514</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>22606942</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Ryan_33</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Ryan Fogaça</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>1394.161</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>92.854</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>96876122</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Latier_3</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Stef Latier</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>TEAM REDLINE</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>1440.897</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>64.539</v>
-      </c>
-      <c r="H33" s="2" t="n">
+      <c r="F46" s="2" t="n">
+        <v>1441.075</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>87.06699999999999</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>10812710</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Brandon_6</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Brandon Ruiz</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>1391.646</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>84.955</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>13472768</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Orozco_57</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Sessa Orozco</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>APEX HUNTERS</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>1651.82</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>15581901</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Villanueva_75</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Roberto Villanueva</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>TEAM VILLANUEVA</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>1583.023</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>98.556</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>74326104</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Zachary_26</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Zachary Mckay</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Low Fuel Motorsport</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>1565.455</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>85.19799999999999</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>84473507</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Jabal_12</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Jabal Damanik</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATEER</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>1468.444</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>79.613</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -493,89 +493,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>50819530</v>
+        <v>13349342</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Toft_80</t>
+          <t>Sihotang_23</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Curt Toft</t>
+          <t>Luwes Sihotang</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>TEAM DENMARK</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1567.594</v>
+        <v>1617.31</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>79.526</v>
+        <v>99.28100000000001</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44519399</v>
+        <v>42241966</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Nielsen_72</t>
+          <t>Rocío_the_ApexHunter</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Per Nielsen</t>
+          <t>Rocío Téllez</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1509.605</v>
+        <v>1588.663</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>98.693</v>
+        <v>94.21299999999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43411979</v>
+        <v>72132228</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Tibor_yt</t>
+          <t>Thomsen_92</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Tibor Horváth</t>
+          <t>Øivind Thomsen</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -584,66 +584,66 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1491.836</v>
+        <v>1609.521</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>88.426</v>
+        <v>85.372</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>39423120</v>
+        <v>66016320</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>De La Fuente_15</t>
+          <t>Matthew_80</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Sergio De La Fuente</t>
+          <t>Matthew Ortiz</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>TEAM ORTIZ</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1506.267</v>
+        <v>1787.935</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>69.72799999999999</v>
+        <v>99.652</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>20562826</v>
+        <v>14899390</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Troy_20</t>
+          <t>Oquendo_8</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Troy Parker</t>
+          <t>Zeferino Oquendo</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -652,66 +652,66 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1535.587</v>
+        <v>1627.932</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>84.602</v>
+        <v>93.023</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>74504365</v>
+        <v>88138811</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Liam_16</t>
+          <t>Duarte_the_ApexHunter</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Liam McCarthy</t>
+          <t>Sebastián Duarte</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1572.842</v>
+        <v>1301.909</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>75.422</v>
+        <v>97.121</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>11737213</v>
+        <v>78206708</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Harsanto_69</t>
+          <t>Grégoire_41</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Harsanto Januar</t>
+          <t>Grégoire Bodin</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -720,100 +720,100 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1426.501</v>
+        <v>1206.017</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>78.78400000000001</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>67640435</v>
+        <v>34248434</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Buk_on_twitch</t>
+          <t>Prayitna_62</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Łukasz Buk</t>
+          <t>Prayitna Gunawan</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1500.002</v>
+        <v>1062.25</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>81.727</v>
+        <v>77.95699999999999</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>78893591</v>
+        <v>81305357</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Gilbert_80</t>
+          <t>James_33</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Joseph Gilbert</t>
+          <t>James Jones</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1615.323</v>
+        <v>1736.171</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>82.54000000000001</v>
+        <v>96.646</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>27535161</v>
+        <v>86752927</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Totino_43</t>
+          <t>Benjámin_6</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Enrico Totino</t>
+          <t>Benjámin Németh</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -822,66 +822,66 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1563.108</v>
+        <v>1490.221</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>85.17400000000001</v>
+        <v>94.554</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>79415539</v>
+        <v>42900141</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Ramírez_83</t>
+          <t>Xanana_2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Mauricio Ramírez</t>
+          <t>Xanana Mangunsong</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>MANGUNSONG RACING</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1381.109</v>
+        <v>1311.368</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>83.65600000000001</v>
+        <v>99.081</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35635784</v>
+        <v>37248392</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>José Miguel_57</t>
+          <t>Adrien_Slipstreamer</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>José Miguel Câmara</t>
+          <t>Adrien Meunier</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -890,197 +890,197 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1492.724</v>
+        <v>1715.587</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>78.584</v>
+        <v>96.58</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40292260</v>
+        <v>80618508</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Vargas_44</t>
+          <t>Torres_73</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Jordán Vargas</t>
+          <t>Fausto Torres</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1407.967</v>
+        <v>1306.786</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>82.61</v>
+        <v>91.273</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>58734058</v>
+        <v>74717117</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Melo_63</t>
+          <t>Pap_56</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Lisandro Melo</t>
+          <t>Balázs Pap</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1530.987</v>
+        <v>1783.496</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>73.908</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>79982643</v>
+        <v>87754186</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Felipe_91</t>
+          <t>Danilo_69</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Felipe Carreño</t>
+          <t>Danilo Silva</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1430.388</v>
+        <v>1303.337</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>72.544</v>
+        <v>99.02500000000001</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>85155740</v>
+        <v>25971646</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>James_77</t>
+          <t>Barbosa_40</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>James Jakobsen</t>
+          <t>Davi Luiz Barbosa</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1497.307</v>
+        <v>1587.894</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>82.18300000000001</v>
+        <v>99.78</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>57182793</v>
+        <v>47503824</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Sitompul_65</t>
+          <t>Poul_0</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Edison Sitompul</t>
+          <t>Poul Dam</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1431.963</v>
+        <v>1864.353</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>74.477</v>
+        <v>89.727</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>39736367</v>
+        <v>75984118</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Thorsen_37</t>
+          <t>Eriksen_93</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Tage Thorsen</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1090,70 +1090,70 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1489.611</v>
+        <v>1258.043</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>88.599</v>
+        <v>99.636</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>74358012</v>
+        <v>34673101</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Débora_Cr1t1c4l</t>
+          <t>Griffith_max</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Débora Tejada</t>
+          <t>James Griffith</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1577.914</v>
+        <v>1598.393</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>98.488</v>
+        <v>88.776</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>12610196</v>
+        <v>53467267</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Belda_0</t>
+          <t>Romolo_94</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Faustino Belda</t>
+          <t>Romolo Orlando</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1162,32 +1162,32 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1576.486</v>
+        <v>1931.298</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>68.996</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>75498741</v>
+        <v>11266126</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Sirait_70</t>
+          <t>Parada_9</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Dono Sirait</t>
+          <t>Jorge Parada</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1196,66 +1196,66 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1424.274</v>
+        <v>1220.049</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>72.334</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45005731</v>
+        <v>73536129</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Vaca_77</t>
+          <t>Javier_16</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Hilda Vaca</t>
+          <t>Javier Coronado</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1512.504</v>
+        <v>1558.81</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>79.855</v>
+        <v>97.441</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>20936083</v>
+        <v>34562007</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Delgado_8</t>
+          <t>Roger_44</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Benito Delgado</t>
+          <t>Arthur Roger</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1264,32 +1264,32 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1579.683</v>
+        <v>1598.493</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>77.87</v>
+        <v>78.666</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>14461622</v>
+        <v>64817767</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Zeljko_42</t>
+          <t>Hubbard_58</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Zeljko Becker</t>
+          <t>William Hubbard</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1298,100 +1298,100 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1449.263</v>
+        <v>1298.611</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>82.184</v>
+        <v>95.985</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>58858039</v>
+        <v>10841578</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Hołubowicz_94</t>
+          <t>Gonzalez_Slipstreamer</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Borys Hołubowicz</t>
+          <t>Mateo Ezequiel Gonzalez</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1570.37</v>
+        <v>1576.853</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>80.18899999999999</v>
+        <v>97.881</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>97938038</v>
+        <v>38248859</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Aleksander_78</t>
+          <t>van Hemert_78</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Aleksander Hrabia</t>
+          <t>Kyano van Hemert</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1355.091</v>
+        <v>1233.628</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>78.711</v>
+        <v>98.547</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>16993073</v>
+        <v>87986088</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Julia_83</t>
+          <t>Szilágyi_96</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Julia Pedraza</t>
+          <t>János Szilágyi</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1400,795 +1400,183 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1393.963</v>
+        <v>1231.519</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>75.614</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>54437763</v>
+        <v>54155943</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Gaspare_37</t>
+          <t>Christensen_53</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Gaspare Botta</t>
+          <t>Thomas Christensen</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>CANADA Racing Team</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1377.656</v>
+        <v>1072.109</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>75.895</v>
+        <v>76.937</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>91909842</v>
+        <v>29580067</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Mark_b00st3d</t>
+          <t>Sara_27</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Mark Kelly</t>
+          <t>Sara Ruelas</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1530.117</v>
+        <v>1721.898</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>75.32599999999999</v>
+        <v>97.63200000000001</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>85260231</v>
+        <v>70126837</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Vieira_59</t>
+          <t>Carlos_73</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Afonso Vieira</t>
+          <t>Carlos Puente</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>PORTUGAL Racing Team</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1462.123</v>
+        <v>1856.537</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>93.154</v>
+        <v>96.77</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>18558645</v>
+        <v>39646302</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Clavero_Cr1t1c4l</t>
+          <t>Johannes_33</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Clímaco Clavero</t>
+          <t>Johannes van Es</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1605.416</v>
+        <v>1653.174</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>97.61799999999999</v>
+        <v>97.111</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>67739226</v>
+        <v>55626657</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Morek_max</t>
+          <t>Seidel_33</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Stanisław Morek</t>
+          <t>Johannes Seidel</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1424.708</v>
+        <v>1289.842</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>68.327</v>
+        <v>96.795</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>24545979</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Sihotang_51</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Lembah Sihotang</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>TEAM SIHOTANG</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>1601.149</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>74526414</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Sitorus_68</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Dwi Sitorus</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>1510.974</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>94.114</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>84232832</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Ramiro_44</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Ramiro Muñoz</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>TEAM ARGENTINA</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>1502.105</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>92.431</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45120138</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Clausen_54</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Christoffer Clausen</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>1438.959</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>92823071</v>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Mathias_22</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Mathias da Mota</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>APEX HUNTERS</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>1477.567</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>85.172</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>89371139</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Lautaro_the_goat</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Lautaro Bustos</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>1483.695</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>66.503</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43641803</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Karja_60</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Karja Samosir</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>1489.185</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>77.90600000000001</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>58039499</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Rodríguez_PR0F</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Bastián Rodríguez</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>1532.274</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>85.789</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>14895103</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Camilo_7</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Camilo Herrera</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>PetrolHead Simracing</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>1555.484</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>82.32599999999999</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>35957367</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Sil_33</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Sil Soos</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>APEX HUNTERS</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>1539.056</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>98.042</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>71540565</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Cesare_15</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Cesare Zaccagnini</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Low Fuel Motorsport</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>1583.633</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>88.514</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>22606942</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Ryan_33</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Ryan Fogaça</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>1394.161</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>92.854</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>96876122</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Latier_3</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Stef Latier</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>TEAM REDLINE</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>1441.075</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>87.06699999999999</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>10812710</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Brandon_6</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Brandon Ruiz</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>1391.646</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>84.955</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>13472768</v>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Orozco_57</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Sessa Orozco</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>APEX HUNTERS</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>1651.82</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>15581901</v>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Villanueva_75</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Roberto Villanueva</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>TEAM VILLANUEVA</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>1583.023</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>98.556</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>74326104</v>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Zachary_26</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Zachary Mckay</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>Low Fuel Motorsport</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>1565.455</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>85.19799999999999</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>84473507</v>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Jabal_12</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Jabal Damanik</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>PRIVATEER</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>1468.444</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>79.613</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,9 +440,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>13349342</v>
+        <v>88958702</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Sihotang_23</t>
+          <t>Schiaparelli_59</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Luwes Sihotang</t>
+          <t>Dino Schiaparelli</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -516,231 +516,231 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1617.31</v>
+        <v>1639.841</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>99.28100000000001</v>
+        <v>81.518</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42241966</v>
+        <v>41715221</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Rocío_the_ApexHunter</t>
+          <t>Ángel_63</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Rocío Téllez</t>
+          <t>Jose Manuel Ángel</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1588.663</v>
+        <v>1558.004</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>94.21299999999999</v>
+        <v>89.962</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>72132228</v>
+        <v>55720580</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Thomsen_92</t>
+          <t>Rinaldi_81</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Øivind Thomsen</t>
+          <t>Matteo Rinaldi</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1609.521</v>
+        <v>1486.633</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>85.372</v>
+        <v>74.72799999999999</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>66016320</v>
+        <v>26809028</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Matthew_80</t>
+          <t>Louis_78</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Matthew Ortiz</t>
+          <t>Louis Williams</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>TEAM ORTIZ</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1787.935</v>
+        <v>1499.045</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>99.652</v>
+        <v>88.66200000000001</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>14899390</v>
+        <v>97500284</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Oquendo_8</t>
+          <t>Richárd_93</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Zeferino Oquendo</t>
+          <t>Richárd Márton</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1627.932</v>
+        <v>1487.831</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>93.023</v>
+        <v>76.917</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>88138811</v>
+        <v>91596228</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Duarte_the_ApexHunter</t>
+          <t>Bakiono_Cr1t1c4l</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Duarte</t>
+          <t>Bakiono Sirait</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>INDONESIA ESPORT</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1301.909</v>
+        <v>1461.653</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>97.121</v>
+        <v>69.438</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>78206708</v>
+        <v>61889662</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Grégoire_41</t>
+          <t>Louis_96</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Grégoire Bodin</t>
+          <t>Louis Bruce</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1206.017</v>
+        <v>1472.665</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>100</v>
+        <v>79.922</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>34248434</v>
+        <v>13313016</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Prayitna_62</t>
+          <t>Ian_43</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Prayitna Gunawan</t>
+          <t>Ian Damanik</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -750,65 +750,65 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1062.25</v>
+        <v>1473.881</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>77.95699999999999</v>
+        <v>75.30800000000001</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>81305357</v>
+        <v>95761627</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>James_33</t>
+          <t>Henric van den Nuwenhuse_45</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>James Jones</t>
+          <t>Sep Henric van den Nuwenhuse</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1736.171</v>
+        <v>1524.668</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>96.646</v>
+        <v>72.08499999999999</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>86752927</v>
+        <v>46072822</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Benjámin_6</t>
+          <t>Tibor_62</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Benjámin Németh</t>
+          <t>Tibor Sándor</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -818,104 +818,104 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1490.221</v>
+        <v>1467.079</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>94.554</v>
+        <v>73.53700000000001</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42900141</v>
+        <v>13086840</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Xanana_2</t>
+          <t>Santiago_93</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Xanana Mangunsong</t>
+          <t>Santiago Torres</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>MANGUNSONG RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1311.368</v>
+        <v>1488.693</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>99.081</v>
+        <v>84.809</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>37248392</v>
+        <v>82506752</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Adrien_Slipstreamer</t>
+          <t>Christian_6</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Adrien Meunier</t>
+          <t>Christian Miller</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1715.587</v>
+        <v>1526.542</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>96.58</v>
+        <v>76.244</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>80618508</v>
+        <v>69478917</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Torres_73</t>
+          <t>Weihmann_61</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Fausto Torres</t>
+          <t>Tilo Weihmann</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -924,66 +924,66 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1306.786</v>
+        <v>1503.983</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>91.273</v>
+        <v>91.69</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>74717117</v>
+        <v>16161576</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Pap_56</t>
+          <t>Bryan_80</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Balázs Pap</t>
+          <t>Bryan Pacheco</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1783.496</v>
+        <v>1527.376</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>100</v>
+        <v>78.877</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>87754186</v>
+        <v>48987032</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Danilo_69</t>
+          <t>Richard_b00st3d</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Danilo Silva</t>
+          <t>Richard Davis</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -992,100 +992,100 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1303.337</v>
+        <v>1492.042</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>99.02500000000001</v>
+        <v>71.032</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>25971646</v>
+        <v>50865683</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Barbosa_40</t>
+          <t>Albers_the_goat</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Davi Luiz Barbosa</t>
+          <t>René Albers</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1587.894</v>
+        <v>1490.208</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>99.78</v>
+        <v>75.12</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>47503824</v>
+        <v>61246878</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Poul_0</t>
+          <t>Moreira_79</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Poul Dam</t>
+          <t>Raul Moreira</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1864.353</v>
+        <v>1467.647</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>89.727</v>
+        <v>76.60299999999999</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>75984118</v>
+        <v>48402207</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Eriksen_93</t>
+          <t>Ermes_83</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Ermes Udinesi</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1094,129 +1094,129 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1258.043</v>
+        <v>1518.535</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>99.636</v>
+        <v>85.791</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>34673101</v>
+        <v>19162421</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Griffith_max</t>
+          <t>Nissen_75</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>James Griffith</t>
+          <t>Noah Nissen</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1598.393</v>
+        <v>1518.139</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>88.776</v>
+        <v>87.449</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>53467267</v>
+        <v>77658878</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Romolo_94</t>
+          <t>João Vitor_49</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Romolo Orlando</t>
+          <t>João Vitor Camargo</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1931.298</v>
+        <v>1414.166</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>100</v>
+        <v>80.77</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>11266126</v>
+        <v>63459462</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Parada_9</t>
+          <t>Mick_PR0F</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Jorge Parada</t>
+          <t>Mick Persijn</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1220.049</v>
+        <v>1464.974</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>100</v>
+        <v>72.73399999999999</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>73536129</v>
+        <v>48746697</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Javier_16</t>
+          <t>Juan_29</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Javier Coronado</t>
+          <t>Xavier Juan</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1226,70 +1226,70 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1558.81</v>
+        <v>1490.88</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>97.441</v>
+        <v>91.321</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>34562007</v>
+        <v>79610598</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Roger_44</t>
+          <t>Olivier_31</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Arthur Roger</t>
+          <t>Olivier Bruggeman</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM NETHERLANDS</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1598.493</v>
+        <v>1488.111</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>78.666</v>
+        <v>80.587</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>64817767</v>
+        <v>95942740</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Hubbard_58</t>
+          <t>Radisch_55</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>William Hubbard</t>
+          <t>Cemal Radisch</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1298,285 +1298,285 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1298.611</v>
+        <v>1476.661</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>95.985</v>
+        <v>81.751</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>10841578</v>
+        <v>27747780</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Gonzalez_Slipstreamer</t>
+          <t>Sebastião_64</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Mateo Ezequiel Gonzalez</t>
+          <t>Sebastião Morais</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM PORTUGAL</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1576.853</v>
+        <v>1540.072</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>97.881</v>
+        <v>90.488</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>38248859</v>
+        <v>75645108</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>van Hemert_78</t>
+          <t>Vinicius_30</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Kyano van Hemert</t>
+          <t>Vinicius Vieira</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1233.628</v>
+        <v>1469.299</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>98.547</v>
+        <v>83.726</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>87986088</v>
+        <v>18691140</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Szilágyi_96</t>
+          <t>Théophile_65</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>János Szilágyi</t>
+          <t>Théophile Hernandez</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1231.519</v>
+        <v>1594.806</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>100</v>
+        <v>89.93600000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>54155943</v>
+        <v>70076180</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Christensen_53</t>
+          <t>Arnaldo_b00st3d</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Thomas Christensen</t>
+          <t>Arnaldo Cabibbo</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>CANADA Racing Team</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1072.109</v>
+        <v>1433.937</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>76.937</v>
+        <v>77.482</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>29580067</v>
+        <v>70530068</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Sara_27</t>
+          <t>Enzo_77</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Sara Ruelas</t>
+          <t>Enzo Biagiotti</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>TEAM ENZO</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1721.898</v>
+        <v>1493.344</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>97.63200000000001</v>
+        <v>83.185</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>70126837</v>
+        <v>88626934</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Carlos_73</t>
+          <t>Nicholas_15</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Carlos Puente</t>
+          <t>Nicholas Miles</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1856.537</v>
+        <v>1508.282</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>96.77</v>
+        <v>69.946</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>39646302</v>
+        <v>34275697</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Johannes_33</t>
+          <t>Klyta_78</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Johannes van Es</t>
+          <t>Grzegorz Klyta</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>KLYTA SIM RACING</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1653.174</v>
+        <v>1507.55</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>97.111</v>
+        <v>87.30500000000001</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>55626657</v>
+        <v>31733326</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Seidel_33</t>
+          <t>Costa_24</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Johannes Seidel</t>
+          <t>Vitor Gabriel Costa</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1289.842</v>
+        <v>1513.452</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>96.795</v>
+        <v>71.94499999999999</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,8 +440,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>88958702</v>
+        <v>17481407</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Schiaparelli_59</t>
+          <t>Nuñez_56</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Dino Schiaparelli</t>
+          <t>Benjamin Nuñez</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -516,214 +516,214 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1639.841</v>
+        <v>1507.315</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>81.518</v>
+        <v>91.10299999999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41715221</v>
+        <v>73707878</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Ángel_63</t>
+          <t>Daniel_52</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Jose Manuel Ángel</t>
+          <t>Daniel Anderson</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>ANDERSON RACING</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1558.004</v>
+        <v>1491.809</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>89.962</v>
+        <v>81.795</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>55720580</v>
+        <v>35869346</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Rinaldi_81</t>
+          <t>Henriques_44</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Matteo Rinaldi</t>
+          <t>Joel Henriques</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1486.633</v>
+        <v>1497.89</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>74.72799999999999</v>
+        <v>89.593</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>26809028</v>
+        <v>87158920</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Louis_78</t>
+          <t>Éric_6</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Louis Williams</t>
+          <t>Éric Peltier</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1499.045</v>
+        <v>1498.208</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>88.66200000000001</v>
+        <v>78.185</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>97500284</v>
+        <v>52861216</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Richárd_93</t>
+          <t>Sauvage_43</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Richárd Márton</t>
+          <t>Stéphane Sauvage</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>SAUVAGE SIM RACING</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1487.831</v>
+        <v>1468.674</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>76.917</v>
+        <v>73.035</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>91596228</v>
+        <v>28305124</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Bakiono_Cr1t1c4l</t>
+          <t>Roberto_93</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Bakiono Sirait</t>
+          <t>Roberto Tomas</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>INDONESIA ESPORT</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1461.653</v>
+        <v>1512.997</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>69.438</v>
+        <v>83.206</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>61889662</v>
+        <v>42024898</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Louis_96</t>
+          <t>Carreño_75</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Louis Bruce</t>
+          <t>Hipólito Carreño</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1472.665</v>
+        <v>1489.7</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>79.922</v>
+        <v>69.85299999999999</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>7</v>
@@ -731,123 +731,123 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>13313016</v>
+        <v>89858200</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Ian_43</t>
+          <t>Thiago Nicolas_72</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Ian Damanik</t>
+          <t>Thiago Nicolas Vazquez</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>VAZQUEZ Motorsport</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1473.881</v>
+        <v>1534.014</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>75.30800000000001</v>
+        <v>85.759</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>95761627</v>
+        <v>11923436</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Henric van den Nuwenhuse_45</t>
+          <t>Moya_5</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Sep Henric van den Nuwenhuse</t>
+          <t>Dilan Moya</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM MOYA</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1524.668</v>
+        <v>1514.593</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>72.08499999999999</v>
+        <v>85.08</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46072822</v>
+        <v>32539996</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Tibor_62</t>
+          <t>Juan_78</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Tibor Sándor</t>
+          <t>Juan Dias</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1467.079</v>
+        <v>1486.133</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>73.53700000000001</v>
+        <v>77.446</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>13086840</v>
+        <v>85055628</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Santiago_93</t>
+          <t>Gareth_49</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Santiago Torres</t>
+          <t>Gareth Payne</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1488.693</v>
+        <v>1483.019</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>84.809</v>
+        <v>73.524</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>9</v>
@@ -867,55 +867,55 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>82506752</v>
+        <v>32750739</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Christian_6</t>
+          <t>Jamie_56</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Christian Miller</t>
+          <t>Jamie Young</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1526.542</v>
+        <v>1424.242</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>76.244</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>69478917</v>
+        <v>24542932</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Weihmann_61</t>
+          <t>Adam_75</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Tilo Weihmann</t>
+          <t>Adam Lage</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1503.983</v>
+        <v>1495.855</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>91.69</v>
+        <v>70.955</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>6</v>
@@ -935,50 +935,50 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>16161576</v>
+        <v>70330528</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Bryan_80</t>
+          <t>Krzysztof_ChicaneKing</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Bryan Pacheco</t>
+          <t>Krzysztof Swacha</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1527.376</v>
+        <v>1520.369</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>78.877</v>
+        <v>93.61799999999999</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>48987032</v>
+        <v>40987724</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Richard_b00st3d</t>
+          <t>Cartwright_37</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Richard Davis</t>
+          <t>Conor Cartwright</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -988,14 +988,14 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1492.042</v>
+        <v>1512.234</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>71.032</v>
+        <v>79.699</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>8</v>
@@ -1003,55 +1003,55 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>50865683</v>
+        <v>52918958</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Albers_the_goat</t>
+          <t>Nuno_59</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>René Albers</t>
+          <t>Nuno Pinto</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1490.208</v>
+        <v>1483.097</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>75.12</v>
+        <v>88.307</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>61246878</v>
+        <v>45093530</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Moreira_79</t>
+          <t>Kaur_96</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Raul Moreira</t>
+          <t>Steven Kaur</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1060,32 +1060,32 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1467.647</v>
+        <v>1488.477</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>76.60299999999999</v>
+        <v>72.887</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>48402207</v>
+        <v>97319903</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Ermes_83</t>
+          <t>Bolzmann_19</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Ermes Udinesi</t>
+          <t>Julius Bolzmann</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1094,44 +1094,44 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1518.535</v>
+        <v>1404.683</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>85.791</v>
+        <v>75.327</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>19162421</v>
+        <v>31268423</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Nissen_75</t>
+          <t>Pons_92</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Noah Nissen</t>
+          <t>Thierry Pons</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1518.139</v>
+        <v>1560.857</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>87.449</v>
+        <v>77.273</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>15</v>
@@ -1139,203 +1139,203 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>77658878</v>
+        <v>94953115</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>João Vitor_49</t>
+          <t>Reza_98</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>João Vitor Camargo</t>
+          <t>Reza Situmorang</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1414.166</v>
+        <v>1461.771</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>80.77</v>
+        <v>90.232</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>63459462</v>
+        <v>75331568</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Mick_PR0F</t>
+          <t>Frederik_83</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Mick Persijn</t>
+          <t>Frederik Nilsson</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1464.974</v>
+        <v>1525.188</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>72.73399999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>48746697</v>
+        <v>47038429</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Juan_29</t>
+          <t>Zsolt_94</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Xavier Juan</t>
+          <t>Zsolt Nagy</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1490.88</v>
+        <v>1486.463</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>91.321</v>
+        <v>69.17100000000001</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>79610598</v>
+        <v>30068657</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Olivier_31</t>
+          <t>Gregory_on_twitch</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Olivier Bruggeman</t>
+          <t>Gregory Wilson</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>TEAM NETHERLANDS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1488.111</v>
+        <v>1516.67</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>80.587</v>
+        <v>74.101</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>95942740</v>
+        <v>93810794</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Radisch_55</t>
+          <t>Daniel_67</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Cemal Radisch</t>
+          <t>Daniel Lee</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>DANIEL SIM RACING</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1476.661</v>
+        <v>1523.555</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>81.751</v>
+        <v>74.625</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>27747780</v>
+        <v>63947629</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Sebastião_64</t>
+          <t>Dirk_44</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Sebastião Morais</t>
+          <t>Dirk van den Brink</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>TEAM PORTUGAL</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1540.072</v>
+        <v>1428.142</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>90.488</v>
+        <v>77.661</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>12</v>
@@ -1343,152 +1343,152 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>75645108</v>
+        <v>54842154</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Vinicius_30</t>
+          <t>Balázs_98</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Vinicius Vieira</t>
+          <t>Ernő Balázs</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1469.299</v>
+        <v>1546.102</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>83.726</v>
+        <v>73.703</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>18691140</v>
+        <v>78098565</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Théophile_65</t>
+          <t>Santiago_b00st3d</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Théophile Hernandez</t>
+          <t>Ezequiel Santiago</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>TEAM EZEQUIEL</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1594.806</v>
+        <v>1525.629</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>89.93600000000001</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>70076180</v>
+        <v>43248377</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Arnaldo_b00st3d</t>
+          <t>Joe_b00st3d</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Arnaldo Cabibbo</t>
+          <t>Joe Walker</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1433.937</v>
+        <v>1517.183</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>77.482</v>
+        <v>80.851</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>70530068</v>
+        <v>91727774</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Enzo_77</t>
+          <t>Manne_44</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Enzo Biagiotti</t>
+          <t>Nick Manne</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>TEAM ENZO</t>
+          <t>TEAM NICK</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1493.344</v>
+        <v>1466.275</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>83.185</v>
+        <v>77.99299999999999</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>88626934</v>
+        <v>12372787</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Nicholas_15</t>
+          <t>Tyler_36</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nicholas Miles</t>
+          <t>Tyler Donaldson</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1498,85 +1498,85 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1508.282</v>
+        <v>1515.28</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>69.946</v>
+        <v>70.91500000000001</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>34275697</v>
+        <v>33543061</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Klyta_78</t>
+          <t>Farkas_95</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Grzegorz Klyta</t>
+          <t>József Farkas</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>KLYTA SIM RACING</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1507.55</v>
+        <v>1521.759</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>87.30500000000001</v>
+        <v>84.694</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>31733326</v>
+        <v>76048065</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Costa_24</t>
+          <t>Gavin_99</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Costa</t>
+          <t>Gavin Odom</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>TEAM ODOM</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1513.452</v>
+        <v>1591.819</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>71.94499999999999</v>
+        <v>92.63500000000001</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/players.xlsx
+++ b/created/xlsxs/players.xlsx
@@ -440,8 +440,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>17481407</v>
+        <v>15338873</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Nuñez_56</t>
+          <t>Szabó_89</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Benjamin Nuñez</t>
+          <t>Erik Szabó</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -516,66 +516,66 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1507.315</v>
+        <v>1468.74</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>91.10299999999999</v>
+        <v>78.071</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>73707878</v>
+        <v>12281905</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Daniel_52</t>
+          <t>Duval_33</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Daniel Anderson</t>
+          <t>William Duval</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>ANDERSON RACING</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1491.809</v>
+        <v>1528.65</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>81.795</v>
+        <v>70.55800000000001</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35869346</v>
+        <v>30663493</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Henriques_44</t>
+          <t>Mendonça_27</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Joel Henriques</t>
+          <t>Ravi Lucca Mendonça</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -584,197 +584,197 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1497.89</v>
+        <v>1413.422</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>89.593</v>
+        <v>61.668</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>87158920</v>
+        <v>52740051</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Éric_6</t>
+          <t>Henriksen_23</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Éric Peltier</t>
+          <t>Paw Henriksen</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1498.208</v>
+        <v>1560.836</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>78.185</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>52861216</v>
+        <v>41427103</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Sauvage_43</t>
+          <t>Mustofa_43</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Stéphane Sauvage</t>
+          <t>Ganjaran Mustofa</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>SAUVAGE SIM RACING</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1468.674</v>
+        <v>1386.215</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>73.035</v>
+        <v>66.877</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>28305124</v>
+        <v>72434747</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Roberto_93</t>
+          <t>Kenneth_49</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Roberto Tomas</t>
+          <t>Kenneth Fox</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1512.997</v>
+        <v>1566.87</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>83.206</v>
+        <v>78.298</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42024898</v>
+        <v>63574474</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Carreño_75</t>
+          <t>Williams_45</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Hipólito Carreño</t>
+          <t>Timothy Williams</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1489.7</v>
+        <v>1561.579</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>69.85299999999999</v>
+        <v>85.899</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>89858200</v>
+        <v>45291397</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Thiago Nicolas_72</t>
+          <t>Jesper_40</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Thiago Nicolas Vazquez</t>
+          <t>Jesper Winther</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>VAZQUEZ Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1534.014</v>
+        <v>1450.399</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>85.759</v>
+        <v>69.866</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>11923436</v>
+        <v>15546675</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Moya_5</t>
+          <t>Carrasco_ChicaneKing</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Dilan Moya</t>
+          <t>Pablo Carrasco</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -784,36 +784,36 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>TEAM MOYA</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1514.593</v>
+        <v>1648.55</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>85.08</v>
+        <v>80.27200000000001</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>32539996</v>
+        <v>62683428</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Juan_78</t>
+          <t>Davies_97</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Juan Dias</t>
+          <t>Antony Davies</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -822,32 +822,32 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1486.133</v>
+        <v>1644.548</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>77.446</v>
+        <v>75.655</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>85055628</v>
+        <v>13964747</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Gareth_49</t>
+          <t>Oliver_61</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Gareth Payne</t>
+          <t>Jason Oliver</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -856,32 +856,32 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1483.019</v>
+        <v>1609.063</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>73.524</v>
+        <v>88.705</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>32750739</v>
+        <v>36428614</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Jamie_56</t>
+          <t>Alain_50</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Jamie Young</t>
+          <t>Alain Mary</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -890,134 +890,134 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1424.242</v>
+        <v>1506.544</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>82.43000000000001</v>
+        <v>67.35599999999999</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>24542932</v>
+        <v>70467434</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Adam_75</t>
+          <t>Iswahyudi_HS</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Adam Lage</t>
+          <t>Ozy Iswahyudi</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1495.855</v>
+        <v>1564.472</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>70.955</v>
+        <v>72.58499999999999</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>70330528</v>
+        <v>48284767</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Krzysztof_ChicaneKing</t>
+          <t>Maynard_66</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Krzysztof Swacha</t>
+          <t>Troy Maynard</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>MAYNARD Racing Team</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1520.369</v>
+        <v>1483.024</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>93.61799999999999</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40987724</v>
+        <v>57004847</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Cartwright_37</t>
+          <t>Fernandez_55</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Conor Cartwright</t>
+          <t>Tiziano Benjamin Fernandez</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>PetrolHead Simracing</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1512.234</v>
+        <v>1656.673</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>79.699</v>
+        <v>74.634</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>52918958</v>
+        <v>96797335</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Nuno_59</t>
+          <t>Irawan_99</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nuno Pinto</t>
+          <t>Jaeman Irawan</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1026,32 +1026,32 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1483.097</v>
+        <v>1476.614</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>88.307</v>
+        <v>64.97799999999999</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45093530</v>
+        <v>84604838</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Kaur_96</t>
+          <t>Gutierrez_75</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Steven Kaur</t>
+          <t>Tomas Gutierrez</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1060,95 +1060,95 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1488.477</v>
+        <v>1491.731</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>72.887</v>
+        <v>53.963</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>97319903</v>
+        <v>98502674</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Bolzmann_19</t>
+          <t>Zola_PR0F</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Julius Bolzmann</t>
+          <t>Bruno Zola</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1404.683</v>
+        <v>1468.508</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>75.327</v>
+        <v>81.384</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>31268423</v>
+        <v>92340056</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Pons_92</t>
+          <t>Aparecida_73</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Thierry Pons</t>
+          <t>Valentim Aparecida</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Low Fuel Motorsport</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1560.857</v>
+        <v>1564.861</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>77.273</v>
+        <v>91.307</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>94953115</v>
+        <v>10090188</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Reza_98</t>
+          <t>Habibi_78</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Reza Situmorang</t>
+          <t>Emong Habibi</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1158,36 +1158,36 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1461.771</v>
+        <v>1463.407</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>90.232</v>
+        <v>81.32299999999999</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>75331568</v>
+        <v>36261369</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Frederik_83</t>
+          <t>József_a_kuposzto</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Frederik Nilsson</t>
+          <t>József Szabó</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1196,338 +1196,338 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1525.188</v>
+        <v>1414.412</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>87.68000000000001</v>
+        <v>78.977</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>47038429</v>
+        <v>10532979</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Zsolt_94</t>
+          <t>Ivan_70</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Zsolt Nagy</t>
+          <t>Ivan Wahyudin</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>APEX HUNTERS</t>
+          <t>PRIVATEER</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1486.463</v>
+        <v>1337.462</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>69.17100000000001</v>
+        <v>69.863</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30068657</v>
+        <v>16973022</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Gregory_on_twitch</t>
+          <t>Drubin_61</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Gregory Wilson</t>
+          <t>Rüdiger Drubin</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1516.67</v>
+        <v>1502.076</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>74.101</v>
+        <v>77.35299999999999</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>93810794</v>
+        <v>67791054</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Daniel_67</t>
+          <t>Wojtunik_49</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Daniel Lee</t>
+          <t>Tymon Wojtunik</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>DANIEL SIM RACING</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1523.555</v>
+        <v>1458.59</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>74.625</v>
+        <v>69.48099999999999</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>63947629</v>
+        <v>14597845</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Dirk_44</t>
+          <t>Tóth_HU</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Dirk van den Brink</t>
+          <t>István Tóth</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>APEX HUNTERS</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1428.142</v>
+        <v>1414.947</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>77.661</v>
+        <v>67.941</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>54842154</v>
+        <v>78698692</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Balázs_98</t>
+          <t>Jati_82</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Ernő Balázs</t>
+          <t>Jati Firgantoro</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>TEAM REDLINE</t>
+          <t>Low Fuel Motorsport</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1546.102</v>
+        <v>1412.52</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>73.703</v>
+        <v>68.458</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>78098565</v>
+        <v>51312681</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Santiago_b00st3d</t>
+          <t>Didier_59</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Ezequiel Santiago</t>
+          <t>Augustin Didier</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>TEAM EZEQUIEL</t>
+          <t>TEAM AUGUSTIN</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1525.629</v>
+        <v>1515.562</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>83.93000000000001</v>
+        <v>77.88500000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43248377</v>
+        <v>74026999</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Joe_b00st3d</t>
+          <t>Januar_63</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Joe Walker</t>
+          <t>Ibrani Januar</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM REDLINE</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1517.183</v>
+        <v>1501.629</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>80.851</v>
+        <v>67.373</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>91727774</v>
+        <v>19448354</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Manne_44</t>
+          <t>Daniel_yt</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nick Manne</t>
+          <t>Daniel Edwards</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>TEAM NICK</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1466.275</v>
+        <v>1341.019</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>77.99299999999999</v>
+        <v>56.258</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>12372787</v>
+        <v>29073365</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Tyler_36</t>
+          <t>Nascimento_85</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Tyler Donaldson</t>
+          <t>Otávio Nascimento</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>PRIVATEER</t>
+          <t>TEAM OTÁVIO</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1515.28</v>
+        <v>1410.614</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>70.91500000000001</v>
+        <v>75.807</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>33543061</v>
+        <v>48872250</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Farkas_95</t>
+          <t>Maldonado_63</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>József Farkas</t>
+          <t>Tomàs Maldonado</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1536,47 +1536,47 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1521.759</v>
+        <v>1595.36</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>84.694</v>
+        <v>88.09</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>76048065</v>
+        <v>92656353</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Gavin_99</t>
+          <t>Echeverría_25</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Gavin Odom</t>
+          <t>Marcio Echeverría</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>TEAM ODOM</t>
+          <t>PetrolHead Simracing</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1591.819</v>
+        <v>1581.11</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>92.63500000000001</v>
+        <v>87.56</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
